--- a/stock_predictor_ai/data/company_sentiment_ready/NRG_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/NRG_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5428"/>
+  <dimension ref="A1:B5482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5429">
+      <c r="A5429" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5430">
+      <c r="A5430" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B5430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5431">
+      <c r="A5431" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B5431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5432">
+      <c r="A5432" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5433">
+      <c r="A5433" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B5433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5434">
+      <c r="A5434" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5435">
+      <c r="A5435" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5436">
+      <c r="A5436" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5437">
+      <c r="A5437" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5438">
+      <c r="A5438" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B5438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5439">
+      <c r="A5439" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5440">
+      <c r="A5440" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B5440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5441">
+      <c r="A5441" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B5441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5442">
+      <c r="A5442" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B5442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5443">
+      <c r="A5443" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B5443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5444">
+      <c r="A5444" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B5444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5445">
+      <c r="A5445" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B5445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5446">
+      <c r="A5446" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B5446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5447">
+      <c r="A5447" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B5447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5448">
+      <c r="A5448" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B5448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5449">
+      <c r="A5449" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B5449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B5450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5451">
+      <c r="A5451" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B5451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5452">
+      <c r="A5452" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B5452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5453">
+      <c r="A5453" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B5453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5454">
+      <c r="A5454" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B5454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5455">
+      <c r="A5455" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B5455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5456">
+      <c r="A5456" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B5456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5457">
+      <c r="A5457" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B5457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5458">
+      <c r="A5458" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B5458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5459">
+      <c r="A5459" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B5459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5460">
+      <c r="A5460" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5461">
+      <c r="A5461" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B5461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5462">
+      <c r="A5462" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B5462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5463">
+      <c r="A5463" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B5463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5464">
+      <c r="A5464" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B5464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5465">
+      <c r="A5465" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5466">
+      <c r="A5466" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B5466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5467">
+      <c r="A5467" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B5467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5468">
+      <c r="A5468" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B5468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5469">
+      <c r="A5469" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B5469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5470">
+      <c r="A5470" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B5470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5471">
+      <c r="A5471" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B5471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5472">
+      <c r="A5472" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B5472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5473">
+      <c r="A5473" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B5473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5474">
+      <c r="A5474" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B5474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5475">
+      <c r="A5475" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B5475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5476">
+      <c r="A5476" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B5476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5477">
+      <c r="A5477" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5478">
+      <c r="A5478" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B5478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5479">
+      <c r="A5479" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B5479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5480">
+      <c r="A5480" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B5480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5481">
+      <c r="A5481" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B5481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5482">
+      <c r="A5482" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B5482" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
